--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value17.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value17.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17657138667346</v>
+        <v>3.842447280883789</v>
       </c>
       <c r="B1">
-        <v>1.578186657292181</v>
+        <v>5.811890125274658</v>
       </c>
       <c r="C1">
-        <v>1.73409884005904</v>
+        <v>4.773184776306152</v>
       </c>
       <c r="D1">
-        <v>1.900368756177533</v>
+        <v>5.346162796020508</v>
       </c>
       <c r="E1">
-        <v>2.281983193837451</v>
+        <v>5.633428573608398</v>
       </c>
     </row>
   </sheetData>
